--- a/Large.xlsx
+++ b/Large.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D068ADA5-1240-4423-A74A-AF78B4E784D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -12,19 +13,31 @@
   <definedNames>
     <definedName name="alpha1">גיליון1!$G$2</definedName>
     <definedName name="alpha2">גיליון1!$H$2</definedName>
+    <definedName name="B_round">גיליון1!$A$46:$F$51</definedName>
     <definedName name="Capacity">גיליון1!$E$2</definedName>
     <definedName name="L">גיליון1!$B$2</definedName>
     <definedName name="n">גיליון1!$D$2</definedName>
+    <definedName name="NSiB">גיליון1!$A$53:$F$58</definedName>
     <definedName name="requests">גיליון1!$A$5:$E$44</definedName>
     <definedName name="S">גיליון1!$A$2</definedName>
     <definedName name="sigma">גיליון1!$F$2</definedName>
     <definedName name="t">גיליון1!$A$3:$F$3</definedName>
+    <definedName name="TBS">גיליון1!$A$60:$F$65</definedName>
     <definedName name="V">גיליון1!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,12 +114,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -960,7 +1062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
@@ -977,7 +1079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -994,7 +1096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1011,7 +1113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1028,7 +1130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1045,7 +1147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1062,7 +1164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1079,7 +1181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1096,7 +1198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1113,7 +1215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1130,7 +1232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1147,7 +1249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1164,8 +1266,368 @@
         <v>55</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <v>1</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>5</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3</v>
+      </c>
+      <c r="F54" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>4</v>
+      </c>
+      <c r="B55" s="5">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2</v>
+      </c>
+      <c r="F55" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
+      <c r="B56" s="5">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5">
+        <v>5</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>2</v>
+      </c>
+      <c r="B57" s="5">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5">
+        <v>4</v>
+      </c>
+      <c r="D57" s="5">
+        <v>5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="7">
+        <v>1</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2</v>
+      </c>
+      <c r="C58" s="8">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8">
+        <v>4</v>
+      </c>
+      <c r="E58" s="8">
+        <v>5</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4</v>
+      </c>
+      <c r="E61" s="5">
+        <v>6</v>
+      </c>
+      <c r="F61" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>8</v>
+      </c>
+      <c r="B62" s="5">
+        <v>10</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>4</v>
+      </c>
+      <c r="F62" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>6</v>
+      </c>
+      <c r="B63" s="5">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2</v>
+      </c>
+      <c r="F63" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>4</v>
+      </c>
+      <c r="B64" s="5">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5">
+        <v>10</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="7">
+        <v>2</v>
+      </c>
+      <c r="B65" s="8">
+        <v>4</v>
+      </c>
+      <c r="C65" s="8">
+        <v>6</v>
+      </c>
+      <c r="D65" s="8">
+        <v>8</v>
+      </c>
+      <c r="E65" s="8">
+        <v>10</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A5:E44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E44">
     <sortCondition ref="C5:C44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
